--- a/artfynd/A 71571-2021.xlsx
+++ b/artfynd/A 71571-2021.xlsx
@@ -683,7 +683,7 @@
         <v>112213243</v>
       </c>
       <c r="B2" t="n">
-        <v>85265</v>
+        <v>85386</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         <v>112213244</v>
       </c>
       <c r="B3" t="n">
-        <v>78579</v>
+        <v>78700</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>

--- a/artfynd/A 71571-2021.xlsx
+++ b/artfynd/A 71571-2021.xlsx
@@ -683,7 +683,7 @@
         <v>112213243</v>
       </c>
       <c r="B2" t="n">
-        <v>85386</v>
+        <v>85400</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         <v>112213244</v>
       </c>
       <c r="B3" t="n">
-        <v>78700</v>
+        <v>78714</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>

--- a/artfynd/A 71571-2021.xlsx
+++ b/artfynd/A 71571-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112213243</v>
+        <v>112213244</v>
       </c>
       <c r="B2" t="n">
-        <v>85400</v>
+        <v>78714</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1988</v>
+        <v>2081</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Kryddspindling</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Cortinarius percomis</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>446893</v>
+        <v>446838</v>
       </c>
       <c r="R2" t="n">
-        <v>7033446</v>
+        <v>7033353</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -782,10 +782,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112213244</v>
+        <v>112213243</v>
       </c>
       <c r="B3" t="n">
-        <v>78714</v>
+        <v>85400</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -794,25 +794,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2081</v>
+        <v>1988</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Kryddspindling</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Cortinarius percomis</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -822,10 +822,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>446838</v>
+        <v>446893</v>
       </c>
       <c r="R3" t="n">
-        <v>7033353</v>
+        <v>7033446</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
